--- a/bioinfo-m2/Results/Eukaryota/Animals/Total_Fishes.xlsx
+++ b/bioinfo-m2/Results/Eukaryota/Animals/Total_Fishes.xlsx
@@ -34,7 +34,7 @@
     <t>Modification date</t>
   </si>
   <si>
-    <t>14-Dec-2017</t>
+    <t>19-Dec-2017</t>
   </si>
   <si>
     <t>BioProject</t>
@@ -5492,31 +5492,31 @@
         <v>18</v>
       </c>
       <c r="B2" t="n" s="38">
-        <v>1011.0</v>
+        <v>1021.0</v>
       </c>
       <c r="C2" t="n" s="39">
-        <v>2.320563729428237</v>
+        <v>2.2988246949160174</v>
       </c>
       <c r="D2" t="n" s="38">
-        <v>936.0</v>
+        <v>946.0</v>
       </c>
       <c r="E2" t="n" s="39">
-        <v>2.148415084811899</v>
+        <v>2.129959021930022</v>
       </c>
       <c r="F2" t="n" s="38">
-        <v>1142.0</v>
+        <v>1158.0</v>
       </c>
       <c r="G2" t="n" s="39">
-        <v>2.621250028691441</v>
+        <v>2.607285990903769</v>
       </c>
       <c r="H2" t="n" s="38">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="I2" t="n" s="38">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="J2" t="n" s="38">
-        <v>97.0</v>
+        <v>101.0</v>
       </c>
       <c r="M2" t="s" s="35">
         <v>0</v>
@@ -5530,31 +5530,31 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="40">
-        <v>1157.0</v>
+        <v>1172.0</v>
       </c>
       <c r="C3" t="n" s="41">
-        <v>2.6556797576147084</v>
+        <v>2.638807583194488</v>
       </c>
       <c r="D3" t="n" s="40">
-        <v>688.0</v>
+        <v>701.0</v>
       </c>
       <c r="E3" t="n" s="41">
-        <v>1.579176899947208</v>
+        <v>1.5783311568424372</v>
       </c>
       <c r="F3" t="n" s="40">
-        <v>1405.0</v>
+        <v>1425.0</v>
       </c>
       <c r="G3" t="n" s="41">
-        <v>3.2249179424793994</v>
+        <v>3.2084477867339123</v>
       </c>
       <c r="H3" t="n" s="42">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="I3" t="n" s="42">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="J3" t="n" s="42">
-        <v>103.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="4">
@@ -5562,37 +5562,37 @@
         <v>20</v>
       </c>
       <c r="B4" t="n" s="38">
-        <v>122.0</v>
+        <v>124.0</v>
       </c>
       <c r="C4" t="n" s="39">
-        <v>0.28002846190924324</v>
+        <v>0.2791912460035124</v>
       </c>
       <c r="D4" t="n" s="38">
-        <v>721.0</v>
+        <v>731.0</v>
       </c>
       <c r="E4" t="n" s="39">
-        <v>1.6549223035783964</v>
+        <v>1.6458774260368352</v>
       </c>
       <c r="F4" t="n" s="38">
-        <v>323.0</v>
+        <v>328.0</v>
       </c>
       <c r="G4" t="n" s="39">
-        <v>0.7413868294810292</v>
+        <v>0.7385058765254199</v>
       </c>
       <c r="H4" t="n" s="38">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="I4" t="n" s="38">
-        <v>128.0</v>
+        <v>130.0</v>
       </c>
       <c r="J4" t="n" s="38">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="M4" t="s" s="35">
         <v>2</v>
       </c>
       <c r="N4" t="n" s="33">
-        <v>108951.0</v>
+        <v>111070.0</v>
       </c>
     </row>
     <row r="5">
@@ -5600,31 +5600,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="n" s="40">
-        <v>661.0</v>
+        <v>666.0</v>
       </c>
       <c r="C5" t="n" s="41">
-        <v>1.5172033878853262</v>
+        <v>1.4995271761156392</v>
       </c>
       <c r="D5" t="n" s="40">
-        <v>474.0</v>
+        <v>477.0</v>
       </c>
       <c r="E5" t="n" s="41">
-        <v>1.0879794339752564</v>
+        <v>1.0739856801909307</v>
       </c>
       <c r="F5" t="n" s="40">
-        <v>2021.0</v>
+        <v>2048.0</v>
       </c>
       <c r="G5" t="n" s="41">
-        <v>4.6388321435949225</v>
+        <v>4.611158643670914</v>
       </c>
       <c r="H5" t="n" s="42">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="I5" t="n" s="42">
         <v>17.0</v>
       </c>
       <c r="J5" t="n" s="42">
-        <v>129.0</v>
+        <v>133.0</v>
       </c>
     </row>
     <row r="6">
@@ -5632,37 +5632,37 @@
         <v>22</v>
       </c>
       <c r="B6" t="n" s="38">
-        <v>1467.0</v>
+        <v>1487.0</v>
       </c>
       <c r="C6" t="n" s="39">
-        <v>3.3672274886955726</v>
+        <v>3.348043409735669</v>
       </c>
       <c r="D6" t="n" s="38">
-        <v>916.0</v>
+        <v>935.0</v>
       </c>
       <c r="E6" t="n" s="39">
-        <v>2.1025087795808752</v>
+        <v>2.1051920565587428</v>
       </c>
       <c r="F6" t="n" s="38">
-        <v>771.0</v>
+        <v>782.0</v>
       </c>
       <c r="G6" t="n" s="39">
-        <v>1.7696880666559551</v>
+        <v>1.760706083667312</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>108.0</v>
+        <v>111.0</v>
       </c>
       <c r="I6" t="n" s="38">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="J6" t="n" s="38">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="M6" t="s" s="35">
         <v>3</v>
       </c>
       <c r="N6" t="n" s="33">
-        <v>1157.0</v>
+        <v>1172.0</v>
       </c>
     </row>
     <row r="7">
@@ -5670,31 +5670,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="n" s="40">
-        <v>1401.0</v>
+        <v>1422.0</v>
       </c>
       <c r="C7" t="n" s="41">
-        <v>3.215736681433195</v>
+        <v>3.2016931598144724</v>
       </c>
       <c r="D7" t="n" s="40">
-        <v>1136.0</v>
+        <v>1155.0</v>
       </c>
       <c r="E7" t="n" s="41">
-        <v>2.6074781371221336</v>
+        <v>2.600531363984329</v>
       </c>
       <c r="F7" t="n" s="40">
-        <v>615.0</v>
+        <v>626.0</v>
       </c>
       <c r="G7" t="n" s="41">
-        <v>1.411618885853972</v>
+        <v>1.4094654838564418</v>
       </c>
       <c r="H7" t="n" s="42">
-        <v>85.0</v>
+        <v>87.0</v>
       </c>
       <c r="I7" t="n" s="42">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="J7" t="n" s="42">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="8">
@@ -5702,31 +5702,31 @@
         <v>24</v>
       </c>
       <c r="B8" t="n" s="38">
-        <v>111.0</v>
+        <v>114.0</v>
       </c>
       <c r="C8" t="n" s="39">
-        <v>0.2547799940321803</v>
+        <v>0.256675822938713</v>
       </c>
       <c r="D8" t="n" s="38">
-        <v>514.0</v>
+        <v>519.0</v>
       </c>
       <c r="E8" t="n" s="39">
-        <v>1.1797920444373036</v>
+        <v>1.1685504570630882</v>
       </c>
       <c r="F8" t="n" s="38">
-        <v>204.0</v>
+        <v>207.0</v>
       </c>
       <c r="G8" t="n" s="39">
-        <v>0.4682443133564395</v>
+        <v>0.46606925744134736</v>
       </c>
       <c r="H8" t="n" s="38">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="I8" t="n" s="38">
-        <v>123.0</v>
+        <v>126.0</v>
       </c>
       <c r="J8" t="n" s="38">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="M8" t="s" s="35">
         <v>4</v>
@@ -5740,31 +5740,31 @@
         <v>25</v>
       </c>
       <c r="B9" t="n" s="40">
-        <v>771.0</v>
+        <v>786.0</v>
       </c>
       <c r="C9" t="n" s="41">
-        <v>1.7696880666559551</v>
+        <v>1.7697122528932316</v>
       </c>
       <c r="D9" t="n" s="40">
-        <v>661.0</v>
+        <v>679.0</v>
       </c>
       <c r="E9" t="n" s="41">
-        <v>1.5172033878853262</v>
+        <v>1.5287972260998783</v>
       </c>
       <c r="F9" t="n" s="40">
-        <v>1549.0</v>
+        <v>1568.0</v>
       </c>
       <c r="G9" t="n" s="41">
-        <v>3.5554433401427685</v>
+        <v>3.530418336560544</v>
       </c>
       <c r="H9" t="n" s="42">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="I9" t="n" s="42">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="J9" t="n" s="42">
-        <v>120.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="10">
@@ -5778,16 +5778,16 @@
         <v>0.0</v>
       </c>
       <c r="D10" t="n" s="38">
-        <v>101.0</v>
+        <v>102.0</v>
       </c>
       <c r="E10" t="n" s="39">
-        <v>0.2318268414166686</v>
+        <v>0.22965731526095376</v>
       </c>
       <c r="F10" t="n" s="38">
-        <v>827.0</v>
+        <v>848.0</v>
       </c>
       <c r="G10" t="n" s="39">
-        <v>1.8982257213028209</v>
+        <v>1.9093078758949882</v>
       </c>
       <c r="H10" t="n" s="38">
         <v>14.0</v>
@@ -5796,7 +5796,7 @@
         <v>17.0</v>
       </c>
       <c r="J10" t="n" s="38">
-        <v>141.0</v>
+        <v>145.0</v>
       </c>
       <c r="M10" t="s" s="35">
         <v>5</v>
@@ -5810,31 +5810,31 @@
         <v>27</v>
       </c>
       <c r="B11" t="n" s="40">
-        <v>539.0</v>
+        <v>545.0</v>
       </c>
       <c r="C11" t="n" s="41">
-        <v>1.237174925976083</v>
+        <v>1.2270905570315667</v>
       </c>
       <c r="D11" t="n" s="40">
-        <v>121.0</v>
+        <v>123.0</v>
       </c>
       <c r="E11" t="n" s="41">
-        <v>0.27773314664769205</v>
+        <v>0.27693970369703247</v>
       </c>
       <c r="F11" t="n" s="40">
-        <v>1547.0</v>
+        <v>1577.0</v>
       </c>
       <c r="G11" t="n" s="41">
-        <v>3.550852709619666</v>
+        <v>3.550682217318864</v>
       </c>
       <c r="H11" t="n" s="42">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="I11" t="n" s="42">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="J11" t="n" s="42">
-        <v>136.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="12">
@@ -5848,25 +5848,25 @@
         <v>0.0</v>
       </c>
       <c r="D12" t="n" s="38">
-        <v>119.0</v>
+        <v>121.0</v>
       </c>
       <c r="E12" t="n" s="39">
-        <v>0.27314251612458973</v>
+        <v>0.2724366190840726</v>
       </c>
       <c r="F12" t="n" s="38">
-        <v>1106.0</v>
+        <v>1132.0</v>
       </c>
       <c r="G12" t="n" s="39">
-        <v>2.5386186792755985</v>
+        <v>2.5487458909352907</v>
       </c>
       <c r="H12" t="n" s="38">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="I12" t="n" s="38">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="J12" t="n" s="38">
-        <v>143.0</v>
+        <v>147.0</v>
       </c>
       <c r="M12" t="s" s="35">
         <v>7</v>
@@ -5880,31 +5880,31 @@
         <v>29</v>
       </c>
       <c r="B13" t="n" s="40">
-        <v>168.0</v>
+        <v>170.0</v>
       </c>
       <c r="C13" t="n" s="41">
-        <v>0.38561296394059724</v>
+        <v>0.38276219210158957</v>
       </c>
       <c r="D13" t="n" s="40">
-        <v>81.0</v>
+        <v>86.0</v>
       </c>
       <c r="E13" t="n" s="41">
-        <v>0.18592053618564508</v>
+        <v>0.19363263835727473</v>
       </c>
       <c r="F13" t="n" s="40">
-        <v>844.0</v>
+        <v>872.0</v>
       </c>
       <c r="G13" t="n" s="41">
-        <v>1.9372460807491907</v>
+        <v>1.9633448912505065</v>
       </c>
       <c r="H13" t="n" s="42">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="I13" t="n" s="42">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="J13" t="n" s="42">
-        <v>136.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="14">
@@ -5912,31 +5912,31 @@
         <v>30</v>
       </c>
       <c r="B14" t="n" s="38">
-        <v>1485.0</v>
+        <v>1499.0</v>
       </c>
       <c r="C14" t="n" s="39">
-        <v>3.4085431634034933</v>
+        <v>3.375061917413428</v>
       </c>
       <c r="D14" t="n" s="38">
-        <v>596.0</v>
+        <v>602.0</v>
       </c>
       <c r="E14" t="n" s="39">
-        <v>1.3680078958845</v>
+        <v>1.3554284685009232</v>
       </c>
       <c r="F14" t="n" s="38">
-        <v>344.0</v>
+        <v>349.0</v>
       </c>
       <c r="G14" t="n" s="39">
-        <v>0.789588449973604</v>
+        <v>0.7857882649614987</v>
       </c>
       <c r="H14" t="n" s="38">
-        <v>125.0</v>
+        <v>128.0</v>
       </c>
       <c r="I14" t="n" s="38">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="J14" t="n" s="38">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="15">
@@ -5944,31 +5944,31 @@
         <v>31</v>
       </c>
       <c r="B15" t="n" s="40">
-        <v>1453.0</v>
+        <v>1468.0</v>
       </c>
       <c r="C15" t="n" s="41">
-        <v>3.3350930750338557</v>
+        <v>3.3052641059125505</v>
       </c>
       <c r="D15" t="n" s="40">
-        <v>419.0</v>
+        <v>429.0</v>
       </c>
       <c r="E15" t="n" s="41">
-        <v>0.9617370945899419</v>
+        <v>0.9659116494798937</v>
       </c>
       <c r="F15" t="n" s="40">
-        <v>638.0</v>
+        <v>648.0</v>
       </c>
       <c r="G15" t="n" s="41">
-        <v>1.464411136869649</v>
+        <v>1.4589994145990004</v>
       </c>
       <c r="H15" t="n" s="42">
-        <v>115.0</v>
+        <v>117.0</v>
       </c>
       <c r="I15" t="n" s="42">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="J15" t="n" s="42">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="16">
@@ -5976,31 +5976,31 @@
         <v>32</v>
       </c>
       <c r="B16" t="n" s="38">
-        <v>528.0</v>
+        <v>552.0</v>
       </c>
       <c r="C16" t="n" s="39">
-        <v>1.2119264580990199</v>
+        <v>1.2428513531769263</v>
       </c>
       <c r="D16" t="n" s="38">
-        <v>428.0</v>
+        <v>441.0</v>
       </c>
       <c r="E16" t="n" s="39">
-        <v>0.9823949319439026</v>
+        <v>0.9929301571576531</v>
       </c>
       <c r="F16" t="n" s="38">
-        <v>569.0</v>
+        <v>577.0</v>
       </c>
       <c r="G16" t="n" s="39">
-        <v>1.306034383822618</v>
+        <v>1.2991399108389245</v>
       </c>
       <c r="H16" t="n" s="38">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="I16" t="n" s="38">
         <v>30.0</v>
       </c>
       <c r="J16" t="n" s="38">
-        <v>87.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="17">
@@ -6008,31 +6008,31 @@
         <v>33</v>
       </c>
       <c r="B17" t="n" s="40">
-        <v>2014.0</v>
+        <v>2047.0</v>
       </c>
       <c r="C17" t="n" s="41">
-        <v>4.622764936764065</v>
+        <v>4.6089071013644345</v>
       </c>
       <c r="D17" t="n" s="40">
-        <v>331.0</v>
+        <v>336.0</v>
       </c>
       <c r="E17" t="n" s="41">
-        <v>0.7597493515734386</v>
+        <v>0.7565182149772595</v>
       </c>
       <c r="F17" t="n" s="40">
-        <v>1482.0</v>
+        <v>1503.0</v>
       </c>
       <c r="G17" t="n" s="41">
-        <v>3.40165721761884</v>
+        <v>3.384068086639348</v>
       </c>
       <c r="H17" t="n" s="42">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="I17" t="n" s="42">
         <v>0.0</v>
       </c>
       <c r="J17" t="n" s="42">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="18">
@@ -6040,31 +6040,31 @@
         <v>34</v>
       </c>
       <c r="B18" t="n" s="38">
-        <v>1057.0</v>
+        <v>1069.0</v>
       </c>
       <c r="C18" t="n" s="39">
-        <v>2.426148231459591</v>
+        <v>2.4068987256270544</v>
       </c>
       <c r="D18" t="n" s="38">
-        <v>1313.0</v>
+        <v>1326.0</v>
       </c>
       <c r="E18" t="n" s="39">
-        <v>3.0137489384166916</v>
+        <v>2.985545098392399</v>
       </c>
       <c r="F18" t="n" s="38">
-        <v>786.0</v>
+        <v>793.0</v>
       </c>
       <c r="G18" t="n" s="39">
-        <v>1.804117795579223</v>
+        <v>1.7854730490385915</v>
       </c>
       <c r="H18" t="n" s="38">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="I18" t="n" s="38">
-        <v>85.0</v>
+        <v>88.0</v>
       </c>
       <c r="J18" t="n" s="38">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="19">
@@ -6072,31 +6072,31 @@
         <v>35</v>
       </c>
       <c r="B19" t="n" s="40">
-        <v>885.0</v>
+        <v>903.0</v>
       </c>
       <c r="C19" t="n" s="41">
-        <v>2.0313540064727893</v>
+        <v>2.033142702751385</v>
       </c>
       <c r="D19" t="n" s="40">
-        <v>789.0</v>
+        <v>799.0</v>
       </c>
       <c r="E19" t="n" s="41">
-        <v>1.8110037413638764</v>
+        <v>1.798982302877471</v>
       </c>
       <c r="F19" t="n" s="40">
-        <v>1227.0</v>
+        <v>1252.0</v>
       </c>
       <c r="G19" t="n" s="41">
-        <v>2.8163518259232903</v>
+        <v>2.8189309677128835</v>
       </c>
       <c r="H19" t="n" s="42">
+        <v>42.0</v>
+      </c>
+      <c r="I19" t="n" s="42">
         <v>41.0</v>
       </c>
-      <c r="I19" t="n" s="42">
-        <v>40.0</v>
-      </c>
       <c r="J19" t="n" s="42">
-        <v>82.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="20">
@@ -6104,28 +6104,28 @@
         <v>36</v>
       </c>
       <c r="B20" t="n" s="38">
-        <v>146.0</v>
+        <v>147.0</v>
       </c>
       <c r="C20" t="n" s="39">
-        <v>0.3351160281864714</v>
+        <v>0.330976719052551</v>
       </c>
       <c r="D20" t="n" s="38">
-        <v>1154.0</v>
+        <v>1189.0</v>
       </c>
       <c r="E20" t="n" s="39">
-        <v>2.6487938118300547</v>
+        <v>2.6770838024046473</v>
       </c>
       <c r="F20" t="n" s="38">
-        <v>192.0</v>
+        <v>193.0</v>
       </c>
       <c r="G20" t="n" s="39">
-        <v>0.4407005302178254</v>
+        <v>0.4345476651506282</v>
       </c>
       <c r="H20" t="n" s="38">
         <v>13.0</v>
       </c>
       <c r="I20" t="n" s="38">
-        <v>139.0</v>
+        <v>143.0</v>
       </c>
       <c r="J20" t="n" s="38">
         <v>9.0</v>
@@ -6136,31 +6136,31 @@
         <v>37</v>
       </c>
       <c r="B21" t="n" s="40">
-        <v>385.0</v>
+        <v>396.0</v>
       </c>
       <c r="C21" t="n" s="41">
-        <v>0.8836963756972019</v>
+        <v>0.8916107533660558</v>
       </c>
       <c r="D21" t="n" s="40">
-        <v>948.0</v>
+        <v>961.0</v>
       </c>
       <c r="E21" t="n" s="41">
-        <v>2.175958867950513</v>
+        <v>2.1637321565272214</v>
       </c>
       <c r="F21" t="n" s="40">
-        <v>1426.0</v>
+        <v>1443.0</v>
       </c>
       <c r="G21" t="n" s="41">
-        <v>3.273119562971974</v>
+        <v>3.248975548250552</v>
       </c>
       <c r="H21" t="n" s="42">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="I21" t="n" s="42">
-        <v>77.0</v>
+        <v>79.0</v>
       </c>
       <c r="J21" t="n" s="42">
-        <v>92.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="22">
@@ -6168,31 +6168,31 @@
         <v>38</v>
       </c>
       <c r="B22" t="n" s="38">
-        <v>794.0</v>
+        <v>805.0</v>
       </c>
       <c r="C22" t="n" s="39">
-        <v>1.8224803176716324</v>
+        <v>1.8124915567163506</v>
       </c>
       <c r="D22" t="n" s="38">
-        <v>1105.0</v>
+        <v>1120.0</v>
       </c>
       <c r="E22" t="n" s="39">
-        <v>2.5363233640140472</v>
+        <v>2.5217273832575313</v>
       </c>
       <c r="F22" t="n" s="38">
-        <v>966.0</v>
+        <v>983.0</v>
       </c>
       <c r="G22" t="n" s="39">
-        <v>2.217274542658434</v>
+        <v>2.21326608726978</v>
       </c>
       <c r="H22" t="n" s="38">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="I22" t="n" s="38">
-        <v>68.0</v>
+        <v>70.0</v>
       </c>
       <c r="J22" t="n" s="38">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="23">
@@ -6200,31 +6200,31 @@
         <v>39</v>
       </c>
       <c r="B23" t="n" s="40">
-        <v>834.0</v>
+        <v>849.0</v>
       </c>
       <c r="C23" t="n" s="41">
-        <v>1.914292928133679</v>
+        <v>1.9115594182014681</v>
       </c>
       <c r="D23" t="n" s="40">
-        <v>1616.0</v>
+        <v>1643.0</v>
       </c>
       <c r="E23" t="n" s="41">
-        <v>3.7092294626666975</v>
+        <v>3.699284009546539</v>
       </c>
       <c r="F23" t="n" s="40">
-        <v>1097.0</v>
+        <v>1117.0</v>
       </c>
       <c r="G23" t="n" s="41">
-        <v>2.517960841921638</v>
+        <v>2.5149727563380915</v>
       </c>
       <c r="H23" t="n" s="42">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="I23" t="n" s="42">
-        <v>110.0</v>
+        <v>114.0</v>
       </c>
       <c r="J23" t="n" s="42">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="24">
@@ -6232,31 +6232,31 @@
         <v>40</v>
       </c>
       <c r="B24" t="n" s="38">
-        <v>115.0</v>
+        <v>118.0</v>
       </c>
       <c r="C24" t="n" s="39">
-        <v>0.263961255078385</v>
+        <v>0.2656819921646328</v>
       </c>
       <c r="D24" t="n" s="38">
-        <v>690.0</v>
+        <v>701.0</v>
       </c>
       <c r="E24" t="n" s="39">
-        <v>1.5837675304703103</v>
+        <v>1.5783311568424372</v>
       </c>
       <c r="F24" t="n" s="38">
-        <v>356.0</v>
+        <v>360.0</v>
       </c>
       <c r="G24" t="n" s="39">
-        <v>0.8171322331122179</v>
+        <v>0.810555230332778</v>
       </c>
       <c r="H24" t="n" s="38">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="I24" t="n" s="38">
-        <v>115.0</v>
+        <v>117.0</v>
       </c>
       <c r="J24" t="n" s="38">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="25">
@@ -6264,31 +6264,31 @@
         <v>41</v>
       </c>
       <c r="B25" t="n" s="40">
-        <v>565.0</v>
+        <v>581.0</v>
       </c>
       <c r="C25" t="n" s="41">
-        <v>1.2968531227764135</v>
+        <v>1.3081460800648446</v>
       </c>
       <c r="D25" t="n" s="40">
-        <v>1218.0</v>
+        <v>1240.0</v>
       </c>
       <c r="E25" t="n" s="41">
-        <v>2.79569398856933</v>
+        <v>2.791912460035124</v>
       </c>
       <c r="F25" t="n" s="40">
-        <v>2555.0</v>
+        <v>2590.0</v>
       </c>
       <c r="G25" t="n" s="41">
-        <v>5.864530493263249</v>
+        <v>5.831494573783042</v>
       </c>
       <c r="H25" t="n" s="42">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="I25" t="n" s="42">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="J25" t="n" s="42">
-        <v>115.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="26">
@@ -6296,31 +6296,31 @@
         <v>42</v>
       </c>
       <c r="B26" t="n" s="38">
-        <v>467.0</v>
+        <v>473.0</v>
       </c>
       <c r="C26" t="n" s="39">
-        <v>1.0719122271443984</v>
+        <v>1.064979510965011</v>
       </c>
       <c r="D26" t="n" s="38">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="E26" t="n" s="39">
-        <v>0.2134643193242592</v>
+        <v>0.2161480614220741</v>
       </c>
       <c r="F26" t="n" s="38">
-        <v>307.0</v>
+        <v>312.0</v>
       </c>
       <c r="G26" t="n" s="39">
-        <v>0.7046617852962105</v>
+        <v>0.7024811996217408</v>
       </c>
       <c r="H26" t="n" s="38">
-        <v>118.0</v>
+        <v>122.0</v>
       </c>
       <c r="I26" t="n" s="38">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="J26" t="n" s="38">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="27">
@@ -6328,31 +6328,31 @@
         <v>43</v>
       </c>
       <c r="B27" t="n" s="40">
-        <v>166.0</v>
+        <v>168.0</v>
       </c>
       <c r="C27" t="n" s="41">
-        <v>0.38102233341749486</v>
+        <v>0.37825910748862973</v>
       </c>
       <c r="D27" t="n" s="40">
-        <v>92.0</v>
+        <v>96.0</v>
       </c>
       <c r="E27" t="n" s="41">
-        <v>0.211169004062708</v>
+        <v>0.2161480614220741</v>
       </c>
       <c r="F27" t="n" s="40">
-        <v>818.0</v>
+        <v>832.0</v>
       </c>
       <c r="G27" t="n" s="41">
-        <v>1.8775678839488603</v>
+        <v>1.873283198991309</v>
       </c>
       <c r="H27" t="n" s="42">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="I27" t="n" s="42">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="J27" t="n" s="42">
-        <v>137.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         <v>44</v>
       </c>
       <c r="B28" t="n" s="38">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="C28" t="n" s="39">
-        <v>0.13771891569307043</v>
+        <v>0.14184716530823613</v>
       </c>
       <c r="D28" t="n" s="38">
-        <v>152.0</v>
+        <v>158.0</v>
       </c>
       <c r="E28" t="n" s="39">
-        <v>0.3488879197557785</v>
+        <v>0.3557436844238303</v>
       </c>
       <c r="F28" t="n" s="38">
-        <v>511.0</v>
+        <v>524.0</v>
       </c>
       <c r="G28" t="n" s="39">
-        <v>1.1729060986526498</v>
+        <v>1.179808168595488</v>
       </c>
       <c r="H28" t="n" s="38">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="I28" t="n" s="38">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="J28" t="n" s="38">
-        <v>127.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="29">
@@ -6392,31 +6392,31 @@
         <v>45</v>
       </c>
       <c r="B29" t="n" s="40">
-        <v>81.0</v>
+        <v>85.0</v>
       </c>
       <c r="C29" t="n" s="41">
-        <v>0.18592053618564508</v>
+        <v>0.19138109605079479</v>
       </c>
       <c r="D29" t="n" s="40">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="E29" t="n" s="41">
-        <v>0.14460486147772397</v>
+        <v>0.14860179222767597</v>
       </c>
       <c r="F29" t="n" s="40">
-        <v>484.0</v>
+        <v>492.0</v>
       </c>
       <c r="G29" t="n" s="41">
-        <v>1.1109325865907682</v>
+        <v>1.1077588147881299</v>
       </c>
       <c r="H29" t="n" s="42">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="I29" t="n" s="42">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="J29" t="n" s="42">
-        <v>127.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="30">
@@ -6424,28 +6424,28 @@
         <v>46</v>
       </c>
       <c r="B30" t="n" s="38">
-        <v>2239.0</v>
+        <v>2274.0</v>
       </c>
       <c r="C30" t="n" s="39">
-        <v>5.139210870613079</v>
+        <v>5.120007204935381</v>
       </c>
       <c r="D30" t="n" s="38">
-        <v>913.0</v>
+        <v>925.0</v>
       </c>
       <c r="E30" t="n" s="39">
-        <v>2.095622833796222</v>
+        <v>2.0826766334939433</v>
       </c>
       <c r="F30" t="n" s="38">
-        <v>408.0</v>
+        <v>420.0</v>
       </c>
       <c r="G30" t="n" s="39">
-        <v>0.936488626712879</v>
+        <v>0.9456477687215742</v>
       </c>
       <c r="H30" t="n" s="38">
-        <v>124.0</v>
+        <v>128.0</v>
       </c>
       <c r="I30" t="n" s="38">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="J30" t="n" s="38">
         <v>5.0</v>
@@ -6456,31 +6456,31 @@
         <v>47</v>
       </c>
       <c r="B31" t="n" s="40">
-        <v>1387.0</v>
+        <v>1402.0</v>
       </c>
       <c r="C31" t="n" s="41">
-        <v>3.1836022677714784</v>
+        <v>3.1566623136848744</v>
       </c>
       <c r="D31" t="n" s="40">
-        <v>535.0</v>
+        <v>551.0</v>
       </c>
       <c r="E31" t="n" s="41">
-        <v>1.2279936649298782</v>
+        <v>1.2405998108704461</v>
       </c>
       <c r="F31" t="n" s="40">
-        <v>999.0</v>
+        <v>1016.0</v>
       </c>
       <c r="G31" t="n" s="41">
-        <v>2.293019946289623</v>
+        <v>2.2875669833836176</v>
       </c>
       <c r="H31" t="n" s="42">
-        <v>97.0</v>
+        <v>99.0</v>
       </c>
       <c r="I31" t="n" s="42">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="J31" t="n" s="42">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="32">
@@ -6488,31 +6488,31 @@
         <v>48</v>
       </c>
       <c r="B32" t="n" s="38">
-        <v>439.0</v>
+        <v>448.0</v>
       </c>
       <c r="C32" t="n" s="39">
-        <v>1.0076433998209655</v>
+        <v>1.0086909533030126</v>
       </c>
       <c r="D32" t="n" s="38">
-        <v>690.0</v>
+        <v>711.0</v>
       </c>
       <c r="E32" t="n" s="39">
-        <v>1.5837675304703103</v>
+        <v>1.6008465799072362</v>
       </c>
       <c r="F32" t="n" s="38">
-        <v>667.0</v>
+        <v>679.0</v>
       </c>
       <c r="G32" t="n" s="39">
-        <v>1.5309752794546332</v>
+        <v>1.5287972260998783</v>
       </c>
       <c r="H32" t="n" s="38">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="I32" t="n" s="38">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="J32" t="n" s="38">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="33">
@@ -6520,31 +6520,31 @@
         <v>49</v>
       </c>
       <c r="B33" t="n" s="40">
-        <v>1436.0</v>
+        <v>1466.0</v>
       </c>
       <c r="C33" t="n" s="41">
-        <v>3.296072715587486</v>
+        <v>3.3007610212995906</v>
       </c>
       <c r="D33" t="n" s="40">
-        <v>621.0</v>
+        <v>640.0</v>
       </c>
       <c r="E33" t="n" s="41">
-        <v>1.425390777423279</v>
+        <v>1.4409870761471608</v>
       </c>
       <c r="F33" t="n" s="40">
-        <v>1733.0</v>
+        <v>1768.0</v>
       </c>
       <c r="G33" t="n" s="41">
-        <v>3.9777813482681847</v>
+        <v>3.9807267978565317</v>
       </c>
       <c r="H33" t="n" s="42">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="I33" t="n" s="42">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="J33" t="n" s="42">
-        <v>98.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="34">
@@ -6552,28 +6552,28 @@
         <v>50</v>
       </c>
       <c r="B34" t="n" s="38">
-        <v>751.0</v>
+        <v>765.0</v>
       </c>
       <c r="C34" t="n" s="39">
-        <v>1.7237817614249318</v>
+        <v>1.722429864457153</v>
       </c>
       <c r="D34" t="n" s="38">
-        <v>609.0</v>
+        <v>626.0</v>
       </c>
       <c r="E34" t="n" s="39">
-        <v>1.397846994284665</v>
+        <v>1.4094654838564418</v>
       </c>
       <c r="F34" t="n" s="38">
-        <v>113.0</v>
+        <v>114.0</v>
       </c>
       <c r="G34" t="n" s="39">
-        <v>0.25937062455528265</v>
+        <v>0.256675822938713</v>
       </c>
       <c r="H34" t="n" s="38">
-        <v>104.0</v>
+        <v>105.0</v>
       </c>
       <c r="I34" t="n" s="38">
-        <v>69.0</v>
+        <v>73.0</v>
       </c>
       <c r="J34" t="n" s="38">
         <v>5.0</v>
@@ -6584,28 +6584,28 @@
         <v>51</v>
       </c>
       <c r="B35" t="n" s="40">
-        <v>574.0</v>
+        <v>589.0</v>
       </c>
       <c r="C35" t="n" s="41">
-        <v>1.3175109601303738</v>
+        <v>1.326158418516684</v>
       </c>
       <c r="D35" t="n" s="40">
-        <v>576.0</v>
+        <v>587.0</v>
       </c>
       <c r="E35" t="n" s="41">
-        <v>1.3221015906534763</v>
+        <v>1.321655333903724</v>
       </c>
       <c r="F35" t="n" s="40">
-        <v>233.0</v>
+        <v>238.0</v>
       </c>
       <c r="G35" t="n" s="41">
-        <v>0.5348084559414236</v>
+        <v>0.5358670689422254</v>
       </c>
       <c r="H35" t="n" s="42">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="I35" t="n" s="42">
-        <v>80.0</v>
+        <v>82.0</v>
       </c>
       <c r="J35" t="n" s="42">
         <v>26.0</v>
@@ -6616,31 +6616,31 @@
         <v>52</v>
       </c>
       <c r="B36" t="n" s="38">
-        <v>154.0</v>
+        <v>161.0</v>
       </c>
       <c r="C36" t="n" s="39">
-        <v>0.3534785502788808</v>
+        <v>0.3624983113432701</v>
       </c>
       <c r="D36" t="n" s="38">
-        <v>687.0</v>
+        <v>714.0</v>
       </c>
       <c r="E36" t="n" s="39">
-        <v>1.5768815846856565</v>
+        <v>1.6076012068266765</v>
       </c>
       <c r="F36" t="n" s="38">
         <v>28.0</v>
       </c>
       <c r="G36" t="n" s="39">
-        <v>0.06426882732343286</v>
+        <v>0.06304318458143829</v>
       </c>
       <c r="H36" t="n" s="38">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="I36" t="n" s="38">
-        <v>122.0</v>
+        <v>125.0</v>
       </c>
       <c r="J36" t="n" s="38">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="37">
@@ -6648,31 +6648,31 @@
         <v>53</v>
       </c>
       <c r="B37" t="n" s="40">
-        <v>293.0</v>
+        <v>298.0</v>
       </c>
       <c r="C37" t="n" s="41">
-        <v>0.672527371634494</v>
+        <v>0.6709596073310218</v>
       </c>
       <c r="D37" t="n" s="40">
-        <v>587.0</v>
+        <v>599.0</v>
       </c>
       <c r="E37" t="n" s="41">
-        <v>1.3473500585305391</v>
+        <v>1.3486738415814834</v>
       </c>
       <c r="F37" t="n" s="40">
-        <v>246.0</v>
+        <v>256.0</v>
       </c>
       <c r="G37" t="n" s="41">
-        <v>0.5646475543415889</v>
+        <v>0.5763948304588643</v>
       </c>
       <c r="H37" t="n" s="42">
         <v>26.0</v>
       </c>
       <c r="I37" t="n" s="42">
-        <v>115.0</v>
+        <v>117.0</v>
       </c>
       <c r="J37" t="n" s="42">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="38">
@@ -6680,28 +6680,28 @@
         <v>54</v>
       </c>
       <c r="B38" t="n" s="38">
-        <v>1137.0</v>
+        <v>1163.0</v>
       </c>
       <c r="C38" t="n" s="39">
-        <v>2.609773452383685</v>
+        <v>2.618543702436169</v>
       </c>
       <c r="D38" t="n" s="38">
-        <v>377.0</v>
+        <v>384.0</v>
       </c>
       <c r="E38" t="n" s="39">
-        <v>0.8653338536047926</v>
+        <v>0.8645922456882964</v>
       </c>
       <c r="F38" t="n" s="38">
-        <v>128.0</v>
+        <v>130.0</v>
       </c>
       <c r="G38" t="n" s="39">
-        <v>0.2938003534785503</v>
+        <v>0.29270049984239205</v>
       </c>
       <c r="H38" t="n" s="38">
-        <v>135.0</v>
+        <v>138.0</v>
       </c>
       <c r="I38" t="n" s="38">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="J38" t="n" s="38">
         <v>11.0</v>
@@ -6712,31 +6712,31 @@
         <v>55</v>
       </c>
       <c r="B39" t="n" s="40">
-        <v>1638.0</v>
+        <v>1665.0</v>
       </c>
       <c r="C39" t="n" s="41">
-        <v>3.7597263984208227</v>
+        <v>3.748817940289098</v>
       </c>
       <c r="D39" t="n" s="40">
-        <v>694.0</v>
+        <v>702.0</v>
       </c>
       <c r="E39" t="n" s="41">
-        <v>1.5929487915165148</v>
+        <v>1.5805826991489171</v>
       </c>
       <c r="F39" t="n" s="40">
-        <v>182.0</v>
+        <v>186.0</v>
       </c>
       <c r="G39" t="n" s="41">
-        <v>0.4177473776023137</v>
+        <v>0.4187868690052686</v>
       </c>
       <c r="H39" t="n" s="42">
-        <v>126.0</v>
+        <v>129.0</v>
       </c>
       <c r="I39" t="n" s="42">
         <v>8.0</v>
       </c>
       <c r="J39" t="n" s="42">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="40">
@@ -6744,31 +6744,31 @@
         <v>56</v>
       </c>
       <c r="B40" t="n" s="38">
-        <v>105.0</v>
+        <v>113.0</v>
       </c>
       <c r="C40" t="n" s="39">
-        <v>0.24100810246287327</v>
+        <v>0.2544242806322331</v>
       </c>
       <c r="D40" t="n" s="38">
-        <v>143.0</v>
+        <v>147.0</v>
       </c>
       <c r="E40" t="n" s="39">
-        <v>0.3282300824018179</v>
+        <v>0.330976719052551</v>
       </c>
       <c r="F40" t="n" s="38">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="G40" t="n" s="39">
-        <v>0.0803360341542911</v>
+        <v>0.08105552303327779</v>
       </c>
       <c r="H40" t="n" s="38">
-        <v>89.0</v>
+        <v>92.0</v>
       </c>
       <c r="I40" t="n" s="38">
-        <v>109.0</v>
+        <v>112.0</v>
       </c>
       <c r="J40" t="n" s="38">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="41">
@@ -6776,31 +6776,31 @@
         <v>57</v>
       </c>
       <c r="B41" t="n" s="40">
-        <v>822.0</v>
+        <v>843.0</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>1.886749144995065</v>
+        <v>1.8980501643625882</v>
       </c>
       <c r="D41" t="n" s="40">
-        <v>533.0</v>
+        <v>543.0</v>
       </c>
       <c r="E41" t="n" s="41">
-        <v>1.223403034406776</v>
+        <v>1.2225874724186068</v>
       </c>
       <c r="F41" t="n" s="40">
-        <v>272.0</v>
+        <v>281.0</v>
       </c>
       <c r="G41" t="n" s="41">
-        <v>0.6243257511419193</v>
+        <v>0.6326833881208628</v>
       </c>
       <c r="H41" t="n" s="42">
-        <v>100.0</v>
+        <v>104.0</v>
       </c>
       <c r="I41" t="n" s="42">
         <v>46.0</v>
       </c>
       <c r="J41" t="n" s="42">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="42">
@@ -6808,31 +6808,31 @@
         <v>58</v>
       </c>
       <c r="B42" t="n" s="38">
-        <v>939.0</v>
+        <v>972.0</v>
       </c>
       <c r="C42" t="n" s="39">
-        <v>2.1553010305965525</v>
+        <v>2.1884991218985004</v>
       </c>
       <c r="D42" t="n" s="38">
-        <v>90.0</v>
+        <v>92.0</v>
       </c>
       <c r="E42" t="n" s="39">
-        <v>0.20657837353960568</v>
+        <v>0.20714189219615436</v>
       </c>
       <c r="F42" t="n" s="38">
-        <v>107.0</v>
+        <v>109.0</v>
       </c>
       <c r="G42" t="n" s="39">
-        <v>0.24559873298597565</v>
+        <v>0.2454181114063133</v>
       </c>
       <c r="H42" t="n" s="38">
-        <v>136.0</v>
+        <v>140.0</v>
       </c>
       <c r="I42" t="n" s="38">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="J42" t="n" s="38">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="43">
@@ -6840,31 +6840,31 @@
         <v>59</v>
       </c>
       <c r="B43" t="n" s="40">
-        <v>781.0</v>
+        <v>800.0</v>
       </c>
       <c r="C43" t="n" s="41">
-        <v>1.792641219271467</v>
+        <v>1.801233845183951</v>
       </c>
       <c r="D43" t="n" s="40">
-        <v>106.0</v>
+        <v>107.0</v>
       </c>
       <c r="E43" t="n" s="41">
-        <v>0.24330341772442446</v>
+        <v>0.24091502679335344</v>
       </c>
       <c r="F43" t="n" s="40">
-        <v>341.0</v>
+        <v>355.0</v>
       </c>
       <c r="G43" t="n" s="41">
-        <v>0.7827025041889504</v>
+        <v>0.7992975188003782</v>
       </c>
       <c r="H43" t="n" s="42">
-        <v>124.0</v>
+        <v>127.0</v>
       </c>
       <c r="I43" t="n" s="42">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="J43" t="n" s="42">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="44">
@@ -6872,31 +6872,31 @@
         <v>60</v>
       </c>
       <c r="B44" t="n" s="38">
-        <v>331.0</v>
+        <v>348.0</v>
       </c>
       <c r="C44" t="n" s="39">
-        <v>0.7597493515734386</v>
+        <v>0.7835367226550187</v>
       </c>
       <c r="D44" t="n" s="38">
-        <v>201.0</v>
+        <v>213.0</v>
       </c>
       <c r="E44" t="n" s="39">
-        <v>0.461358367571786</v>
+        <v>0.47957851128022694</v>
       </c>
       <c r="F44" t="n" s="38">
-        <v>276.0</v>
+        <v>295.0</v>
       </c>
       <c r="G44" t="n" s="39">
-        <v>0.633507012188124</v>
+        <v>0.6642049804115819</v>
       </c>
       <c r="H44" t="n" s="38">
-        <v>104.0</v>
+        <v>107.0</v>
       </c>
       <c r="I44" t="n" s="38">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="J44" t="n" s="38">
-        <v>95.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="45">
@@ -6904,31 +6904,31 @@
         <v>61</v>
       </c>
       <c r="B45" t="n" s="40">
-        <v>462.0</v>
+        <v>470.0</v>
       </c>
       <c r="C45" t="n" s="41">
-        <v>1.0604356508366424</v>
+        <v>1.0582248840455712</v>
       </c>
       <c r="D45" t="n" s="40">
-        <v>149.0</v>
+        <v>155.0</v>
       </c>
       <c r="E45" t="n" s="41">
-        <v>0.342001973971125</v>
+        <v>0.3489890575043905</v>
       </c>
       <c r="F45" t="n" s="40">
-        <v>177.0</v>
+        <v>186.0</v>
       </c>
       <c r="G45" t="n" s="41">
-        <v>0.4062708012945578</v>
+        <v>0.4187868690052686</v>
       </c>
       <c r="H45" t="n" s="42">
-        <v>115.0</v>
+        <v>118.0</v>
       </c>
       <c r="I45" t="n" s="42">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="J45" t="n" s="42">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="46">
@@ -6936,31 +6936,31 @@
         <v>62</v>
       </c>
       <c r="B46" t="n" s="38">
-        <v>840.0</v>
+        <v>857.0</v>
       </c>
       <c r="C46" t="n" s="39">
-        <v>1.9280648197029862</v>
+        <v>1.9295717566533075</v>
       </c>
       <c r="D46" t="n" s="38">
-        <v>223.0</v>
+        <v>227.0</v>
       </c>
       <c r="E46" t="n" s="39">
-        <v>0.5118553033259118</v>
+        <v>0.5111001035709462</v>
       </c>
       <c r="F46" t="n" s="38">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="G46" t="n" s="39">
-        <v>0.17903459040099157</v>
+        <v>0.18237492682487505</v>
       </c>
       <c r="H46" t="n" s="38">
-        <v>135.0</v>
+        <v>138.0</v>
       </c>
       <c r="I46" t="n" s="38">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="J46" t="n" s="38">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="47">
@@ -6968,28 +6968,28 @@
         <v>63</v>
       </c>
       <c r="B47" t="n" s="40">
-        <v>531.0</v>
+        <v>547.0</v>
       </c>
       <c r="C47" t="n" s="41">
-        <v>1.2188124038836734</v>
+        <v>1.2315936416445266</v>
       </c>
       <c r="D47" t="n" s="40">
-        <v>216.0</v>
+        <v>218.0</v>
       </c>
       <c r="E47" t="n" s="41">
-        <v>0.49578809649505357</v>
+        <v>0.4908362228126266</v>
       </c>
       <c r="F47" t="n" s="40">
-        <v>125.0</v>
+        <v>127.0</v>
       </c>
       <c r="G47" t="n" s="41">
-        <v>0.28691440769389676</v>
+        <v>0.2859458729229522</v>
       </c>
       <c r="H47" t="n" s="42">
-        <v>115.0</v>
+        <v>119.0</v>
       </c>
       <c r="I47" t="n" s="42">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="J47" t="n" s="42">
         <v>37.0</v>
@@ -7000,31 +7000,31 @@
         <v>64</v>
       </c>
       <c r="B48" t="n" s="38">
-        <v>177.0</v>
+        <v>191.0</v>
       </c>
       <c r="C48" t="n" s="39">
-        <v>0.4062708012945578</v>
+        <v>0.4300445805376683</v>
       </c>
       <c r="D48" t="n" s="38">
-        <v>213.0</v>
+        <v>222.0</v>
       </c>
       <c r="E48" t="n" s="39">
-        <v>0.48890215071040005</v>
+        <v>0.4998423920385464</v>
       </c>
       <c r="F48" t="n" s="38">
-        <v>86.0</v>
+        <v>92.0</v>
       </c>
       <c r="G48" t="n" s="39">
-        <v>0.197397112493401</v>
+        <v>0.20714189219615436</v>
       </c>
       <c r="H48" t="n" s="38">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="I48" t="n" s="38">
-        <v>107.0</v>
+        <v>108.0</v>
       </c>
       <c r="J48" t="n" s="38">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="49">
@@ -7032,31 +7032,31 @@
         <v>65</v>
       </c>
       <c r="B49" t="n" s="40">
-        <v>618.0</v>
+        <v>638.0</v>
       </c>
       <c r="C49" t="n" s="41">
-        <v>1.4185048316386255</v>
+        <v>1.436483991534201</v>
       </c>
       <c r="D49" t="n" s="40">
-        <v>202.0</v>
+        <v>205.0</v>
       </c>
       <c r="E49" t="n" s="41">
-        <v>0.4636536828333372</v>
+        <v>0.4615661728283874</v>
       </c>
       <c r="F49" t="n" s="40">
-        <v>240.0</v>
+        <v>258.0</v>
       </c>
       <c r="G49" t="n" s="41">
-        <v>0.5508756627722817</v>
+        <v>0.5808979150718242</v>
       </c>
       <c r="H49" t="n" s="42">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
       <c r="I49" t="n" s="42">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="J49" t="n" s="42">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="50">
@@ -7070,25 +7070,25 @@
         <v>0.0</v>
       </c>
       <c r="D50" t="n" s="38">
-        <v>2033.0</v>
+        <v>2061.0</v>
       </c>
       <c r="E50" t="n" s="39">
-        <v>4.6663759267335365</v>
+        <v>4.640428693655154</v>
       </c>
       <c r="F50" t="n" s="38">
-        <v>910.0</v>
+        <v>918.0</v>
       </c>
       <c r="G50" t="n" s="39">
-        <v>2.0887368880115686</v>
+        <v>2.066915837348584</v>
       </c>
       <c r="H50" t="n" s="38">
         <v>3.0</v>
       </c>
       <c r="I50" t="n" s="38">
-        <v>135.0</v>
+        <v>139.0</v>
       </c>
       <c r="J50" t="n" s="38">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="51">
@@ -7096,31 +7096,31 @@
         <v>67</v>
       </c>
       <c r="B51" t="n" s="40">
-        <v>611.0</v>
+        <v>624.0</v>
       </c>
       <c r="C51" t="n" s="41">
-        <v>1.4024376248077672</v>
+        <v>1.4049623992434817</v>
       </c>
       <c r="D51" t="n" s="40">
-        <v>1086.0</v>
+        <v>1096.0</v>
       </c>
       <c r="E51" t="n" s="41">
-        <v>2.492712374044575</v>
+        <v>2.467690367902013</v>
       </c>
       <c r="F51" t="n" s="40">
-        <v>885.0</v>
+        <v>894.0</v>
       </c>
       <c r="G51" t="n" s="41">
-        <v>2.0313540064727893</v>
+        <v>2.0128788219930653</v>
       </c>
       <c r="H51" t="n" s="42">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="I51" t="n" s="42">
-        <v>88.0</v>
+        <v>90.0</v>
       </c>
       <c r="J51" t="n" s="42">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="52">
@@ -7134,22 +7134,22 @@
         <v>0.0</v>
       </c>
       <c r="D52" t="n" s="38">
-        <v>1762.0</v>
+        <v>1795.0</v>
       </c>
       <c r="E52" t="n" s="39">
-        <v>4.044345490853169</v>
+        <v>4.041518440131489</v>
       </c>
       <c r="F52" t="n" s="38">
-        <v>164.0</v>
+        <v>166.0</v>
       </c>
       <c r="G52" t="n" s="39">
-        <v>0.37643170289439254</v>
+        <v>0.37375602287566984</v>
       </c>
       <c r="H52" t="n" s="38">
         <v>5.0</v>
       </c>
       <c r="I52" t="n" s="38">
-        <v>142.0</v>
+        <v>146.0</v>
       </c>
       <c r="J52" t="n" s="38">
         <v>8.0</v>
@@ -7160,31 +7160,31 @@
         <v>69</v>
       </c>
       <c r="B53" t="n" s="40">
-        <v>435.0</v>
+        <v>448.0</v>
       </c>
       <c r="C53" t="n" s="41">
-        <v>0.9984621387747608</v>
+        <v>1.0086909533030126</v>
       </c>
       <c r="D53" t="n" s="40">
-        <v>1024.0</v>
+        <v>1040.0</v>
       </c>
       <c r="E53" t="n" s="41">
-        <v>2.3504028278284026</v>
+        <v>2.3416039987391364</v>
       </c>
       <c r="F53" t="n" s="40">
-        <v>1657.0</v>
+        <v>1686.0</v>
       </c>
       <c r="G53" t="n" s="41">
-        <v>3.8033373883902954</v>
+        <v>3.7961003287251764</v>
       </c>
       <c r="H53" t="n" s="42">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I53" t="n" s="42">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="J53" t="n" s="42">
-        <v>106.0</v>
+        <v>109.0</v>
       </c>
     </row>
     <row r="54">
@@ -7192,31 +7192,31 @@
         <v>70</v>
       </c>
       <c r="B54" t="n" s="38">
-        <v>806.0</v>
+        <v>820.0</v>
       </c>
       <c r="C54" t="n" s="39">
-        <v>1.8500241008102463</v>
+        <v>1.8462646913135496</v>
       </c>
       <c r="D54" t="n" s="38">
-        <v>1233.0</v>
+        <v>1242.0</v>
       </c>
       <c r="E54" t="n" s="39">
-        <v>2.8301237174925977</v>
+        <v>2.796415544648084</v>
       </c>
       <c r="F54" t="n" s="38">
-        <v>608.0</v>
+        <v>620.0</v>
       </c>
       <c r="G54" t="n" s="39">
-        <v>1.395551679023114</v>
+        <v>1.395956230017562</v>
       </c>
       <c r="H54" t="n" s="38">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="I54" t="n" s="38">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="J54" t="n" s="38">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="55">
@@ -7224,31 +7224,31 @@
         <v>71</v>
       </c>
       <c r="B55" t="n" s="40">
-        <v>756.0</v>
+        <v>768.0</v>
       </c>
       <c r="C55" t="n" s="41">
-        <v>1.7352583377326876</v>
+        <v>1.7291844913765928</v>
       </c>
       <c r="D55" t="n" s="40">
-        <v>1528.0</v>
+        <v>1550.0</v>
       </c>
       <c r="E55" t="n" s="41">
-        <v>3.507241719650194</v>
+        <v>3.4898905750439053</v>
       </c>
       <c r="F55" t="n" s="40">
-        <v>414.0</v>
+        <v>424.0</v>
       </c>
       <c r="G55" t="n" s="41">
-        <v>0.950260518282186</v>
+        <v>0.9546539379474941</v>
       </c>
       <c r="H55" t="n" s="42">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="I55" t="n" s="42">
-        <v>114.0</v>
+        <v>116.0</v>
       </c>
       <c r="J55" t="n" s="42">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="56">
@@ -7256,31 +7256,31 @@
         <v>72</v>
       </c>
       <c r="B56" t="n" s="38">
-        <v>69.0</v>
+        <v>71.0</v>
       </c>
       <c r="C56" t="n" s="39">
-        <v>0.158376753047031</v>
+        <v>0.15985950376007566</v>
       </c>
       <c r="D56" t="n" s="38">
-        <v>773.0</v>
+        <v>793.0</v>
       </c>
       <c r="E56" t="n" s="39">
-        <v>1.7742786971790574</v>
+        <v>1.7854730490385915</v>
       </c>
       <c r="F56" t="n" s="38">
-        <v>179.0</v>
+        <v>186.0</v>
       </c>
       <c r="G56" t="n" s="39">
-        <v>0.41086143181766016</v>
+        <v>0.4187868690052686</v>
       </c>
       <c r="H56" t="n" s="38">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="I56" t="n" s="38">
-        <v>124.0</v>
+        <v>127.0</v>
       </c>
       <c r="J56" t="n" s="38">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="57">
@@ -7288,31 +7288,31 @@
         <v>73</v>
       </c>
       <c r="B57" t="n" s="40">
-        <v>601.0</v>
+        <v>617.0</v>
       </c>
       <c r="C57" t="n" s="41">
-        <v>1.3794844721922555</v>
+        <v>1.3892016030981222</v>
       </c>
       <c r="D57" t="n" s="40">
-        <v>1395.0</v>
+        <v>1421.0</v>
       </c>
       <c r="E57" t="n" s="41">
-        <v>3.201964789863888</v>
+        <v>3.199441617507993</v>
       </c>
       <c r="F57" t="n" s="40">
-        <v>1125.0</v>
+        <v>1151.0</v>
       </c>
       <c r="G57" t="n" s="41">
-        <v>2.582229669245071</v>
+        <v>2.5915251947584093</v>
       </c>
       <c r="H57" t="n" s="42">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="I57" t="n" s="42">
-        <v>100.0</v>
+        <v>101.0</v>
       </c>
       <c r="J57" t="n" s="42">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="58">
@@ -7320,31 +7320,31 @@
         <v>74</v>
       </c>
       <c r="B58" t="n" s="38">
-        <v>1053.0</v>
+        <v>1081.0</v>
       </c>
       <c r="C58" t="n" s="39">
-        <v>2.4169669704133865</v>
+        <v>2.433917233304814</v>
       </c>
       <c r="D58" t="n" s="38">
-        <v>336.0</v>
+        <v>346.0</v>
       </c>
       <c r="E58" t="n" s="39">
-        <v>0.7712259278811945</v>
+        <v>0.7790336380420588</v>
       </c>
       <c r="F58" t="n" s="38">
-        <v>531.0</v>
+        <v>544.0</v>
       </c>
       <c r="G58" t="n" s="39">
-        <v>1.2188124038836734</v>
+        <v>1.2248390147250867</v>
       </c>
       <c r="H58" t="n" s="38">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
       <c r="I58" t="n" s="38">
+        <v>31.0</v>
+      </c>
+      <c r="J58" t="n" s="38">
         <v>29.0</v>
-      </c>
-      <c r="J58" t="n" s="38">
-        <v>28.0</v>
       </c>
     </row>
     <row r="59">
@@ -7352,31 +7352,31 @@
         <v>75</v>
       </c>
       <c r="B59" t="n" s="40">
-        <v>261.0</v>
+        <v>263.0</v>
       </c>
       <c r="C59" t="n" s="41">
-        <v>0.5990772832648564</v>
+        <v>0.5921556266042239</v>
       </c>
       <c r="D59" t="n" s="40">
-        <v>298.0</v>
+        <v>307.0</v>
       </c>
       <c r="E59" t="n" s="41">
-        <v>0.68400394794225</v>
+        <v>0.6912234880893412</v>
       </c>
       <c r="F59" t="n" s="40">
-        <v>996.0</v>
+        <v>1020.0</v>
       </c>
       <c r="G59" t="n" s="41">
-        <v>2.2861340005049695</v>
+        <v>2.2965731526095374</v>
       </c>
       <c r="H59" t="n" s="42">
         <v>9.0</v>
       </c>
       <c r="I59" t="n" s="42">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="J59" t="n" s="42">
-        <v>122.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="60">
@@ -7384,31 +7384,31 @@
         <v>76</v>
       </c>
       <c r="B60" t="n" s="38">
-        <v>155.0</v>
+        <v>156.0</v>
       </c>
       <c r="C60" t="n" s="39">
-        <v>0.355773865540432</v>
+        <v>0.3512405998108704</v>
       </c>
       <c r="D60" t="n" s="38">
-        <v>429.0</v>
+        <v>453.0</v>
       </c>
       <c r="E60" t="n" s="39">
-        <v>0.9846902472054537</v>
+        <v>1.0199486648354124</v>
       </c>
       <c r="F60" t="n" s="38">
-        <v>620.0</v>
+        <v>639.0</v>
       </c>
       <c r="G60" t="n" s="39">
-        <v>1.423095462161728</v>
+        <v>1.4387355338406809</v>
       </c>
       <c r="H60" t="n" s="38">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="I60" t="n" s="38">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="J60" t="n" s="38">
-        <v>97.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="61">
@@ -7416,31 +7416,31 @@
         <v>77</v>
       </c>
       <c r="B61" t="n" s="40">
-        <v>143.0</v>
+        <v>147.0</v>
       </c>
       <c r="C61" t="n" s="41">
-        <v>0.3282300824018179</v>
+        <v>0.330976719052551</v>
       </c>
       <c r="D61" t="n" s="40">
-        <v>236.0</v>
+        <v>251.0</v>
       </c>
       <c r="E61" t="n" s="41">
-        <v>0.5416944017260771</v>
+        <v>0.5651371189264646</v>
       </c>
       <c r="F61" t="n" s="40">
-        <v>648.0</v>
+        <v>669.0</v>
       </c>
       <c r="G61" t="n" s="41">
-        <v>1.4873642894851606</v>
+        <v>1.506281803035079</v>
       </c>
       <c r="H61" t="n" s="42">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="I61" t="n" s="42">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="J61" t="n" s="42">
-        <v>106.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="62">
@@ -7448,28 +7448,28 @@
         <v>78</v>
       </c>
       <c r="B62" t="n" s="38">
-        <v>1341.0</v>
+        <v>1362.0</v>
       </c>
       <c r="C62" t="n" s="39">
-        <v>3.078017765740124</v>
+        <v>3.0666006214256765</v>
       </c>
       <c r="D62" t="n" s="38">
-        <v>1884.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E62" t="n" s="39">
-        <v>4.3243739527624125</v>
+        <v>4.300445805376683</v>
       </c>
       <c r="F62" t="n" s="38">
-        <v>359.0</v>
+        <v>369.0</v>
       </c>
       <c r="G62" t="n" s="39">
-        <v>0.8240181788968715</v>
+        <v>0.8308191110910974</v>
       </c>
       <c r="H62" t="n" s="38">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="I62" t="n" s="38">
-        <v>102.0</v>
+        <v>104.0</v>
       </c>
       <c r="J62" t="n" s="38">
         <v>3.0</v>
@@ -7480,31 +7480,31 @@
         <v>79</v>
       </c>
       <c r="B63" t="n" s="40">
-        <v>1558.0</v>
+        <v>1589.0</v>
       </c>
       <c r="C63" t="n" s="41">
-        <v>3.5761011774967293</v>
+        <v>3.577700724996623</v>
       </c>
       <c r="D63" t="n" s="40">
-        <v>1156.0</v>
+        <v>1183.0</v>
       </c>
       <c r="E63" t="n" s="41">
-        <v>2.653384442353157</v>
+        <v>2.6635745485657676</v>
       </c>
       <c r="F63" t="n" s="40">
-        <v>470.0</v>
+        <v>485.0</v>
       </c>
       <c r="G63" t="n" s="41">
-        <v>1.078798172929052</v>
+        <v>1.0919980186427702</v>
       </c>
       <c r="H63" t="n" s="42">
-        <v>93.0</v>
+        <v>95.0</v>
       </c>
       <c r="I63" t="n" s="42">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="J63" t="n" s="42">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="64">
@@ -7512,31 +7512,31 @@
         <v>80</v>
       </c>
       <c r="B64" t="n" s="38">
-        <v>155.0</v>
+        <v>166.0</v>
       </c>
       <c r="C64" t="n" s="39">
-        <v>0.355773865540432</v>
+        <v>0.37375602287566984</v>
       </c>
       <c r="D64" t="n" s="38">
-        <v>1464.0</v>
+        <v>1498.0</v>
       </c>
       <c r="E64" t="n" s="39">
-        <v>3.360341542910919</v>
+        <v>3.372810375106948</v>
       </c>
       <c r="F64" t="n" s="38">
-        <v>290.0</v>
+        <v>299.0</v>
       </c>
       <c r="G64" t="n" s="39">
-        <v>0.6656414258498404</v>
+        <v>0.6732111496375017</v>
       </c>
       <c r="H64" t="n" s="38">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="I64" t="n" s="38">
-        <v>132.0</v>
+        <v>134.0</v>
       </c>
       <c r="J64" t="n" s="38">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="65">
@@ -7544,31 +7544,31 @@
         <v>81</v>
       </c>
       <c r="B65" t="n" s="40">
-        <v>1526.0</v>
+        <v>1562.0</v>
       </c>
       <c r="C65" t="n" s="41">
-        <v>3.5026510891270917</v>
+        <v>3.5169090827216642</v>
       </c>
       <c r="D65" t="n" s="40">
-        <v>1090.0</v>
+        <v>1122.0</v>
       </c>
       <c r="E65" t="n" s="41">
-        <v>2.50189363509078</v>
+        <v>2.5262304678704917</v>
       </c>
       <c r="F65" t="n" s="40">
-        <v>1125.0</v>
+        <v>1150.0</v>
       </c>
       <c r="G65" t="n" s="41">
-        <v>2.582229669245071</v>
+        <v>2.5892736524519298</v>
       </c>
       <c r="H65" t="n" s="42">
-        <v>108.0</v>
+        <v>111.0</v>
       </c>
       <c r="I65" t="n" s="42">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="J65" t="n" s="42">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="67">
@@ -7576,31 +7576,31 @@
         <v>82</v>
       </c>
       <c r="B67" t="n" s="40">
-        <v>43567.0</v>
+        <v>44414.0</v>
       </c>
       <c r="C67" t="n" s="41">
-        <v>99.99999999999997</v>
+        <v>100.0</v>
       </c>
       <c r="D67" t="n" s="40">
-        <v>43567.0</v>
+        <v>44414.0</v>
       </c>
       <c r="E67" t="n" s="41">
-        <v>100.0</v>
+        <v>99.99999999999994</v>
       </c>
       <c r="F67" t="n" s="40">
-        <v>43567.0</v>
+        <v>44414.0</v>
       </c>
       <c r="G67" t="n" s="41">
-        <v>100.00000000000001</v>
+        <v>100.00000000000003</v>
       </c>
       <c r="H67" t="n" s="40">
-        <v>73405.0</v>
+        <v>78003.0</v>
       </c>
       <c r="I67" t="n" s="40">
-        <v>71655.0</v>
+        <v>75835.0</v>
       </c>
       <c r="J67" t="n" s="40">
-        <v>71918.0</v>
+        <v>76364.0</v>
       </c>
     </row>
     <row r="68"/>
@@ -7609,16 +7609,16 @@
         <v>83</v>
       </c>
       <c r="B71" t="n" s="47">
-        <v>5376.0</v>
+        <v>5452.0</v>
       </c>
       <c r="C71" t="n" s="48">
-        <v>8.222195032423835</v>
+        <v>8.179308689390302</v>
       </c>
       <c r="D71" t="n" s="47">
-        <v>5285.0</v>
+        <v>5345.0</v>
       </c>
       <c r="E71" t="n" s="48">
-        <v>8.083017251927076</v>
+        <v>8.018783005280845</v>
       </c>
     </row>
     <row r="72">
@@ -7626,16 +7626,16 @@
         <v>84</v>
       </c>
       <c r="B72" t="n" s="45">
-        <v>5046.0</v>
+        <v>5122.0</v>
       </c>
       <c r="C72" t="n" s="46">
-        <v>7.717484399853175</v>
+        <v>7.684229476716274</v>
       </c>
       <c r="D72" t="n" s="45">
-        <v>5070.0</v>
+        <v>5158.0</v>
       </c>
       <c r="E72" t="n" s="46">
-        <v>7.754190627676495</v>
+        <v>7.738238118098896</v>
       </c>
     </row>
     <row r="73">
@@ -7643,16 +7643,16 @@
         <v>85</v>
       </c>
       <c r="B73" t="n" s="47">
-        <v>2783.0</v>
+        <v>2844.0</v>
       </c>
       <c r="C73" t="n" s="48">
-        <v>4.256393001345895</v>
+        <v>4.266682669227077</v>
       </c>
       <c r="D73" t="n" s="47">
-        <v>2670.0</v>
+        <v>2732.0</v>
       </c>
       <c r="E73" t="n" s="48">
-        <v>4.083567845344427</v>
+        <v>4.0986557849255885</v>
       </c>
     </row>
     <row r="74">
@@ -7660,16 +7660,16 @@
         <v>86</v>
       </c>
       <c r="B74" t="n" s="45">
-        <v>5325.0</v>
+        <v>5414.0</v>
       </c>
       <c r="C74" t="n" s="46">
-        <v>8.14419429829928</v>
+        <v>8.122299567930868</v>
       </c>
       <c r="D74" t="n" s="45">
-        <v>4962.0</v>
+        <v>5037.0</v>
       </c>
       <c r="E74" t="n" s="46">
-        <v>7.589012602471552</v>
+        <v>7.556709073451752</v>
       </c>
     </row>
     <row r="75">
@@ -7677,16 +7677,16 @@
         <v>87</v>
       </c>
       <c r="B75" t="n" s="47">
-        <v>5052.0</v>
+        <v>5136.0</v>
       </c>
       <c r="C75" t="n" s="48">
-        <v>7.726660956809004</v>
+        <v>7.70523283725396</v>
       </c>
       <c r="D75" t="n" s="47">
-        <v>5256.0</v>
+        <v>5335.0</v>
       </c>
       <c r="E75" t="n" s="48">
-        <v>8.03866389330723</v>
+        <v>8.003780604896784</v>
       </c>
     </row>
     <row r="76">
@@ -7694,16 +7694,16 @@
         <v>88</v>
       </c>
       <c r="B76" t="n" s="45">
-        <v>5950.0</v>
+        <v>6046.0</v>
       </c>
       <c r="C76" t="n" s="46">
-        <v>9.10008564786492</v>
+        <v>9.070451272203552</v>
       </c>
       <c r="D76" t="n" s="45">
-        <v>5961.0</v>
+        <v>6061.0</v>
       </c>
       <c r="E76" t="n" s="46">
-        <v>9.116909335617276</v>
+        <v>9.092954872779645</v>
       </c>
     </row>
     <row r="77">
@@ -7711,16 +7711,16 @@
         <v>89</v>
       </c>
       <c r="B77" t="n" s="47">
-        <v>1651.0</v>
+        <v>1689.0</v>
       </c>
       <c r="C77" t="n" s="48">
-        <v>2.5250825890126025</v>
+        <v>2.533905424867979</v>
       </c>
       <c r="D77" t="n" s="47">
-        <v>1643.0</v>
+        <v>1676.0</v>
       </c>
       <c r="E77" t="n" s="48">
-        <v>2.5128471797381624</v>
+        <v>2.514402304368699</v>
       </c>
     </row>
     <row r="78">
@@ -7728,16 +7728,16 @@
         <v>90</v>
       </c>
       <c r="B78" t="n" s="45">
-        <v>5922.0</v>
+        <v>6040.0</v>
       </c>
       <c r="C78" t="n" s="46">
-        <v>9.05726171540438</v>
+        <v>9.061449831973116</v>
       </c>
       <c r="D78" t="n" s="45">
-        <v>6145.0</v>
+        <v>6260.0</v>
       </c>
       <c r="E78" t="n" s="46">
-        <v>9.398323748929402</v>
+        <v>9.391502640422468</v>
       </c>
     </row>
     <row r="79">
@@ -7745,16 +7745,16 @@
         <v>91</v>
       </c>
       <c r="B79" t="n" s="47">
-        <v>2281.0</v>
+        <v>2336.0</v>
       </c>
       <c r="C79" t="n" s="48">
-        <v>3.4886210693747706</v>
+        <v>3.5045607297167547</v>
       </c>
       <c r="D79" t="n" s="47">
-        <v>2570.0</v>
+        <v>2639.0</v>
       </c>
       <c r="E79" t="n" s="48">
-        <v>3.930625229413924</v>
+        <v>3.9591334613538165</v>
       </c>
     </row>
     <row r="80">
@@ -7762,16 +7762,16 @@
         <v>92</v>
       </c>
       <c r="B80" t="n" s="45">
-        <v>3148.0</v>
+        <v>3211.0</v>
       </c>
       <c r="C80" t="n" s="46">
-        <v>4.81463354949223</v>
+        <v>4.817270763322131</v>
       </c>
       <c r="D80" t="n" s="45">
-        <v>2918.0</v>
+        <v>2982.0</v>
       </c>
       <c r="E80" t="n" s="46">
-        <v>4.462865532852074</v>
+        <v>4.473715794527124</v>
       </c>
     </row>
     <row r="81">
@@ -7779,16 +7779,16 @@
         <v>93</v>
       </c>
       <c r="B81" t="n" s="47">
-        <v>1904.0</v>
+        <v>1979.0</v>
       </c>
       <c r="C81" t="n" s="48">
-        <v>2.9120274073167747</v>
+        <v>2.968975036005761</v>
       </c>
       <c r="D81" t="n" s="47">
-        <v>2056.0</v>
+        <v>2123.0</v>
       </c>
       <c r="E81" t="n" s="48">
-        <v>3.144500183531139</v>
+        <v>3.1850096015362457</v>
       </c>
     </row>
     <row r="82">
@@ -7796,16 +7796,16 @@
         <v>94</v>
       </c>
       <c r="B82" t="n" s="45">
-        <v>1917.0</v>
+        <v>1981.0</v>
       </c>
       <c r="C82" t="n" s="46">
-        <v>2.93190994738774</v>
+        <v>2.971975516082573</v>
       </c>
       <c r="D82" t="n" s="45">
-        <v>1632.0</v>
+        <v>1682.0</v>
       </c>
       <c r="E82" t="n" s="46">
-        <v>2.496023491985807</v>
+        <v>2.5234037445991357</v>
       </c>
     </row>
     <row r="83">
@@ -7813,16 +7813,16 @@
         <v>95</v>
       </c>
       <c r="B83" t="n" s="47">
-        <v>5278.0</v>
+        <v>5348.0</v>
       </c>
       <c r="C83" t="n" s="48">
-        <v>8.072311268811942</v>
+        <v>8.023283725396062</v>
       </c>
       <c r="D83" t="n" s="47">
-        <v>5356.0</v>
+        <v>5450.0</v>
       </c>
       <c r="E83" t="n" s="48">
-        <v>8.191606509237733</v>
+        <v>8.17630820931349</v>
       </c>
     </row>
     <row r="84">
@@ -7830,16 +7830,16 @@
         <v>96</v>
       </c>
       <c r="B84" t="n" s="45">
-        <v>4861.0</v>
+        <v>4953.0</v>
       </c>
       <c r="C84" t="n" s="46">
-        <v>7.434540560381745</v>
+        <v>7.430688910225635</v>
       </c>
       <c r="D84" t="n" s="45">
-        <v>4626.0</v>
+        <v>4710.0</v>
       </c>
       <c r="E84" t="n" s="46">
-        <v>7.075125412945063</v>
+        <v>7.066130580892943</v>
       </c>
     </row>
     <row r="85">
@@ -7847,16 +7847,16 @@
         <v>97</v>
       </c>
       <c r="B85" t="n" s="47">
-        <v>2838.0</v>
+        <v>2914.0</v>
       </c>
       <c r="C85" t="n" s="48">
-        <v>4.340511440107671</v>
+        <v>4.371699471915506</v>
       </c>
       <c r="D85" t="n" s="47">
-        <v>2868.0</v>
+        <v>2962.0</v>
       </c>
       <c r="E85" t="n" s="48">
-        <v>4.386394224886823</v>
+        <v>4.443710993759002</v>
       </c>
     </row>
     <row r="86">
@@ -7864,16 +7864,16 @@
         <v>98</v>
       </c>
       <c r="B86" t="n" s="45">
-        <v>6052.0</v>
+        <v>6191.0</v>
       </c>
       <c r="C86" t="n" s="46">
-        <v>9.256087116114035</v>
+        <v>9.287986077772443</v>
       </c>
       <c r="D86" t="n" s="45">
-        <v>6366.0</v>
+        <v>6504.0</v>
       </c>
       <c r="E86" t="n" s="46">
-        <v>9.736326930135814</v>
+        <v>9.757561209793566</v>
       </c>
     </row>
     <row r="88">
@@ -7881,13 +7881,13 @@
         <v>82</v>
       </c>
       <c r="B88" t="n" s="47">
-        <v>65384.0</v>
+        <v>66656.0</v>
       </c>
       <c r="C88" t="n" s="48">
-        <v>100.00000000000001</v>
+        <v>100.0</v>
       </c>
       <c r="D88" t="n" s="47">
-        <v>65384.0</v>
+        <v>66656.0</v>
       </c>
       <c r="E88" t="n" s="48">
         <v>100.0</v>
